--- a/reports/student3/tester-performance-graphic-after.xlsx
+++ b/reports/student3/tester-performance-graphic-after.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegef\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vegef\Documents\UNI\TERCERO\DP2\Workspace-25\Projects\Acme-ANS-C2\reports\student3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43392AC1-AEE3-4B21-B1C9-96E871148003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44682FF1-3714-46DC-88B0-4505819228D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{902562DE-C491-4736-B405-26D609149458}"/>
   </bookViews>
